--- a/src/test/resources/testdataJuiceShop/LoginTestData.xlsx
+++ b/src/test/resources/testdataJuiceShop/LoginTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>email</t>
   </si>
@@ -26,6 +26,30 @@
   </si>
   <si>
     <t>Psl_2105</t>
+  </si>
+  <si>
+    <t>mai.ngo@hotmail.com</t>
+  </si>
+  <si>
+    <t>Đoàn_12Abc</t>
+  </si>
+  <si>
+    <t>tang.thi@gmail.com</t>
+  </si>
+  <si>
+    <t>Trương_12Abc</t>
+  </si>
+  <si>
+    <t>trinh.trinh@hotmail.com</t>
+  </si>
+  <si>
+    <t>Tăng_12Abc</t>
+  </si>
+  <si>
+    <t>le.cuong@gmail.com</t>
+  </si>
+  <si>
+    <t>Đặng_12Abc</t>
   </si>
 </sst>
 </file>
@@ -92,7 +116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -101,6 +125,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -387,9 +435,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="30.33203125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="10.77734375"/>
+    <col min="3" max="16384" style="1" width="9.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -401,11 +449,11 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
+      <c r="A2" s="12" t="s">
+        <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
+      <c r="B2" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
